--- a/data/Orcus - Monsters.xlsx
+++ b/data/Orcus - Monsters.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Google Drive\Obsidian\Tabletop games\d20 System or D&amp;D-esque\2021 Orcus - 4E clone\GitHub\orcus\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9DF684D-5610-442A-B3B2-93BFB56DAA90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B18BAD2-D293-43C7-B311-BEC899E9A1D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/data/Orcus - Monsters.xlsx
+++ b/data/Orcus - Monsters.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Google Drive\Obsidian\Tabletop games\d20 System or D&amp;D-esque\2021 Orcus - 4E clone\GitHub\orcus\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B18BAD2-D293-43C7-B311-BEC899E9A1D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE8619D3-F05D-49D7-998F-91864428B809}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6043" uniqueCount="1708">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6043" uniqueCount="1709">
   <si>
     <t>Chapter</t>
   </si>
@@ -5214,6 +5214,9 @@
   <si>
     <t xml:space="preserve">##### Special
 The mega-chariot gives no XP. The ostovite swarm must be defeated for the heroes to gain XP. </t>
+  </si>
+  <si>
+    <t>Must be grappling the target</t>
   </si>
 </sst>
 </file>
@@ -5554,10 +5557,10 @@
   <dimension ref="A1:EZ174"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C29" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="AZ137" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="L41" sqref="L41"/>
+      <selection pane="bottomRight" activeCell="BI147" sqref="BI147"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -32437,11 +32440,8 @@
       <c r="BD147" s="2" t="s">
         <v>996</v>
       </c>
-      <c r="BF147" s="2">
-        <v>9</v>
-      </c>
       <c r="BH147" s="4" t="s">
-        <v>1207</v>
+        <v>1708</v>
       </c>
       <c r="BI147" s="2" t="s">
         <v>1662</v>
@@ -32493,9 +32493,6 @@
       </c>
       <c r="CA147" s="2" t="s">
         <v>996</v>
-      </c>
-      <c r="CB147" s="2">
-        <v>9</v>
       </c>
       <c r="CC147" s="2" t="s">
         <v>996</v>

--- a/data/Orcus - Monsters.xlsx
+++ b/data/Orcus - Monsters.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Google Drive\Obsidian\Tabletop games\d20 System or D&amp;D-esque\2021 Orcus - 4E clone\GitHub\orcus\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B097524-7455-464E-88F1-31DA8F64AA25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0242DCFF-33F3-4872-A7F1-EA021C0A23BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -8108,10 +8108,10 @@
   <dimension ref="A1:FA278"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D107" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D116" sqref="D116"/>
+      <selection pane="bottomRight" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.109375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -80245,8 +80245,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25D7BE54-20BF-433F-BFFB-E1D0B87C2E23}">
   <dimension ref="A1:C226"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C224" sqref="A1:C224"/>
+    <sheetView topLeftCell="A206" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A223"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/data/Orcus - Monsters.xlsx
+++ b/data/Orcus - Monsters.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Google Drive\Obsidian\Tabletop games\d20 System or D&amp;D-esque\2021 Orcus - 4E clone\GitHub\orcus\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D25BDDEF-2DDE-43D7-AF72-8A5CF06DCC3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{637A2C85-53D8-40E5-AE0E-F34F06A88F10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -8216,13 +8216,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:FA277"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="EI8" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="ET18" sqref="ET18"/>
+      <selection pane="bottomRight" activeCell="A277" sqref="A4:A277"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.109375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -8707,7 +8708,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="2" spans="1:157" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:157" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1092</v>
       </c>
@@ -9177,7 +9178,7 @@
         <v>1092</v>
       </c>
     </row>
-    <row r="3" spans="1:157" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:157" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -11601,7 +11602,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:157" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:157" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>0</v>
       </c>
@@ -14103,7 +14104,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:157" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:157" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>1492</v>
       </c>
@@ -14737,7 +14738,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:157" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:157" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>1492</v>
       </c>
@@ -16560,7 +16561,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="32" spans="1:157" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:157" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>1492</v>
       </c>
@@ -19613,7 +19614,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="41" spans="1:157" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:157" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>1492</v>
       </c>
@@ -20781,7 +20782,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="46" spans="1:157" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:157" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>0</v>
       </c>
@@ -22577,7 +22578,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="52" spans="1:157" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:157" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>0</v>
       </c>
@@ -24010,7 +24011,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="57" spans="1:157" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:157" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>0</v>
       </c>
@@ -25533,7 +25534,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="62" spans="1:157" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:157" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>0</v>
       </c>
@@ -26622,7 +26623,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="66" spans="1:157" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:157" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>0</v>
       </c>
@@ -27207,7 +27208,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="69" spans="1:157" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:157" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>1492</v>
       </c>
@@ -28587,7 +28588,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="73" spans="1:157" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:157" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>1492</v>
       </c>
@@ -29937,7 +29938,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="77" spans="1:157" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:157" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>1492</v>
       </c>
@@ -31288,7 +31289,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="81" spans="1:157" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:157" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>1492</v>
       </c>
@@ -32673,7 +32674,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="85" spans="1:157" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:157" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>0</v>
       </c>
@@ -33136,7 +33137,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="87" spans="1:157" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:157" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>1492</v>
       </c>
@@ -33690,7 +33691,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="90" spans="1:157" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:157" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>1492</v>
       </c>
@@ -34510,7 +34511,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:157" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:157" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>0</v>
       </c>
@@ -34525,7 +34526,7 @@
       <c r="AM93" s="2"/>
       <c r="ET93" s="5"/>
     </row>
-    <row r="94" spans="1:157" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:157" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>0</v>
       </c>
@@ -38434,7 +38435,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="111" spans="1:157" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:157" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>1492</v>
       </c>
@@ -39279,7 +39280,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="114" spans="1:157" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:157" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>0</v>
       </c>
@@ -39789,7 +39790,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="117" spans="1:157" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:157" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>0</v>
       </c>
@@ -40683,7 +40684,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="120" spans="1:157" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:157" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>1492</v>
       </c>
@@ -41115,7 +41116,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="123" spans="1:157" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:157" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>0</v>
       </c>
@@ -43805,7 +43806,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="130" spans="1:157" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:157" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>1492</v>
       </c>
@@ -45548,7 +45549,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="135" spans="1:157" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:157" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>0</v>
       </c>
@@ -46110,7 +46111,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="138" spans="1:157" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:157" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>0</v>
       </c>
@@ -46153,7 +46154,7 @@
         <v>-5</v>
       </c>
     </row>
-    <row r="139" spans="1:157" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:157" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>1492</v>
       </c>
@@ -47904,7 +47905,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="148" spans="1:157" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:157" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>1492</v>
       </c>
@@ -49504,7 +49505,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="156" spans="1:157" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:157" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>1492</v>
       </c>
@@ -50440,7 +50441,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="161" spans="1:157" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:157" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>1492</v>
       </c>
@@ -52590,7 +52591,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="171" spans="1:157" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:157" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>1492</v>
       </c>
@@ -54150,7 +54151,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="179" spans="1:157" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:157" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>0</v>
       </c>
@@ -55018,7 +55019,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="182" spans="1:157" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:157" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>0</v>
       </c>
@@ -56084,7 +56085,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:157" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:157" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>0</v>
       </c>
@@ -57951,7 +57952,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="197" spans="1:157" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:157" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>0</v>
       </c>
@@ -58743,7 +58744,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="200" spans="1:157" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:157" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>0</v>
       </c>
@@ -60494,7 +60495,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="205" spans="1:157" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:157" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
         <v>0</v>
       </c>
@@ -61300,7 +61301,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="209" spans="1:157" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:157" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
         <v>0</v>
       </c>
@@ -62976,7 +62977,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="215" spans="1:157" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:157" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
         <v>0</v>
       </c>
@@ -64252,7 +64253,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="221" spans="1:157" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:157" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
         <v>0</v>
       </c>
@@ -64683,7 +64684,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="224" spans="1:157" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:157" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
         <v>0</v>
       </c>
@@ -66015,7 +66016,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="230" spans="1:157" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:157" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
         <v>0</v>
       </c>
@@ -66486,7 +66487,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="232" spans="1:157" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:157" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
         <v>0</v>
       </c>
@@ -67859,7 +67860,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="237" spans="1:157" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:157" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
         <v>0</v>
       </c>
@@ -68742,7 +68743,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="240" spans="1:157" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:157" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
         <v>0</v>
       </c>
@@ -72026,7 +72027,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="251" spans="1:157" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:157" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
         <v>0</v>
       </c>
@@ -72912,7 +72913,7 @@
         <v>-4</v>
       </c>
     </row>
-    <row r="254" spans="1:157" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:157" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
         <v>1492</v>
       </c>
@@ -74654,7 +74655,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="259" spans="1:157" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:157" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
         <v>1492</v>
       </c>
@@ -76144,7 +76145,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="264" spans="1:157" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:157" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
         <v>1492</v>
       </c>
@@ -76549,7 +76550,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="267" spans="1:157" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:157" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
         <v>1492</v>
       </c>
@@ -78256,7 +78257,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="272" spans="1:157" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:157" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
         <v>0</v>
       </c>
@@ -78955,7 +78956,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="275" spans="1:157" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:157" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
         <v>0</v>
       </c>
@@ -79625,7 +79626,233 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:FA277" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:FA277" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="Aboleth"/>
+        <filter val="Abyssal Mummy"/>
+        <filter val="Adult Couatl"/>
+        <filter val="Ancient Couatl"/>
+        <filter val="Ancient Hermit Crab"/>
+        <filter val="Anguineum Caste Ophiduan"/>
+        <filter val="Animate Battleform"/>
+        <filter val="Animate Collector"/>
+        <filter val="Animate Guardian"/>
+        <filter val="Archvillain"/>
+        <filter val="Armored Warmage"/>
+        <filter val="Baby Screamer"/>
+        <filter val="Balor"/>
+        <filter val="Barghest"/>
+        <filter val="Bauble Beast"/>
+        <filter val="Bear Shifter"/>
+        <filter val="Beast"/>
+        <filter val="Big Burner"/>
+        <filter val="Bison"/>
+        <filter val="Blademaster"/>
+        <filter val="Bloody Bones"/>
+        <filter val="Boar"/>
+        <filter val="Boar Demon (Nalfeshnee)"/>
+        <filter val="Bodyguard"/>
+        <filter val="Bone Chariot"/>
+        <filter val="Burner Demon"/>
+        <filter val="Burrower Worm"/>
+        <filter val="Centurion"/>
+        <filter val="Chain Brawler"/>
+        <filter val="Chank"/>
+        <filter val="Chuul"/>
+        <filter val="Cowled Assassin"/>
+        <filter val="Crossbow Master"/>
+        <filter val="Crossbow Skirmisher"/>
+        <filter val="Cruel Lieutenant"/>
+        <filter val="Dark Knight"/>
+        <filter val="Deathgaunt"/>
+        <filter val="Deepfolk Berserker"/>
+        <filter val="Deepfolk Hydromancer"/>
+        <filter val="Deepfolk Warrior"/>
+        <filter val="Demon Toad"/>
+        <filter val="Desiccated Husk"/>
+        <filter val="Devil Ape"/>
+        <filter val="Dire Wolf"/>
+        <filter val="Dog"/>
+        <filter val="Dog-faced Baboon"/>
+        <filter val="Eagle"/>
+        <filter val="Elder Couatl"/>
+        <filter val="Elephant"/>
+        <filter val="Elohim Sky Guardian"/>
+        <filter val="Enthralled Servant"/>
+        <filter val="Ettercap"/>
+        <filter val="Evil Eye"/>
+        <filter val="Failed Sacrifice"/>
+        <filter val="Fir Bolg Archer"/>
+        <filter val="Fir Bolg Chieftain"/>
+        <filter val="Fir Bolg Hunter"/>
+        <filter val="Fir Bolg Shaman"/>
+        <filter val="Fire Giant"/>
+        <filter val="Fire Magician"/>
+        <filter val="Flash Beetle"/>
+        <filter val="Flay Devil"/>
+        <filter val="Flying Head"/>
+        <filter val="Flying Head Swarm"/>
+        <filter val="Formidable Archer"/>
+        <filter val="Frenzy Demon"/>
+        <filter val="Frost Giant"/>
+        <filter val="Gang Initiate"/>
+        <filter val="Gang Leader"/>
+        <filter val="Gargoyle"/>
+        <filter val="Ghast"/>
+        <filter val="Ghoul"/>
+        <filter val="Ghoul Worm"/>
+        <filter val="Giant Amoeba"/>
+        <filter val="Giant Frog"/>
+        <filter val="Gloomwarden"/>
+        <filter val="Great Ape"/>
+        <filter val="Greater Barghest"/>
+        <filter val="Greater Failed Sacrifice"/>
+        <filter val="Grenadier"/>
+        <filter val="Greymalkin"/>
+        <filter val="Half-Aboleth"/>
+        <filter val="Hate Reaper"/>
+        <filter val="Hellhound"/>
+        <filter val="Hezrou"/>
+        <filter val="Hill Giant"/>
+        <filter val="Hominis Caste Ophiduan"/>
+        <filter val="Hopping Imp"/>
+        <filter val="Huge Fishing Spider"/>
+        <filter val="Huge Hunting Spider"/>
+        <filter val="Huge Webbing Spider"/>
+        <filter val="Hulk"/>
+        <filter val="Hungry Maw"/>
+        <filter val="Ice Hag"/>
+        <filter val="Ill-Equipped Combatant"/>
+        <filter val="Infected Animal"/>
+        <filter val="Infected Behemoth"/>
+        <filter val="Infected Drone"/>
+        <filter val="Infected Grub"/>
+        <filter val="Infected Guard"/>
+        <filter val="Infiltrator"/>
+        <filter val="Insidious Assassin"/>
+        <filter val="Iridescent Scorpion"/>
+        <filter val="Jiang-Shi Magistrate"/>
+        <filter val="Jiang-Shi Scholar"/>
+        <filter val="Jinushigami"/>
+        <filter val="King of Thieves"/>
+        <filter val="Lamia"/>
+        <filter val="Lamia Superior"/>
+        <filter val="Large Air Elemental"/>
+        <filter val="Large Earth Elemental"/>
+        <filter val="Large Fire Elemental"/>
+        <filter val="Large Fishing Spider"/>
+        <filter val="Large Hunting Spider"/>
+        <filter val="Large Vermin Swarm"/>
+        <filter val="Large Water Elemental"/>
+        <filter val="Large Webbing Spider"/>
+        <filter val="Laughing Demon"/>
+        <filter val="Legion Recruit"/>
+        <filter val="Legionary"/>
+        <filter val="Mammoth"/>
+        <filter val="Mancatcher"/>
+        <filter val="Marilith"/>
+        <filter val="Martial Arts Master"/>
+        <filter val="Marut"/>
+        <filter val="Master Assassin"/>
+        <filter val="Medium Air Elemental"/>
+        <filter val="Medium Earth Elemental"/>
+        <filter val="Medium Fire Elemental"/>
+        <filter val="Medium Fishing Spider"/>
+        <filter val="Medium Hunting Spider"/>
+        <filter val="Medium Water Elemental"/>
+        <filter val="Medium Webbing Spider"/>
+        <filter val="Mega-Chariot"/>
+        <filter val="Mercenary Archer"/>
+        <filter val="Mercenary Lord"/>
+        <filter val="Mitflit"/>
+        <filter val="Mother Screamer"/>
+        <filter val="Mountain Demon"/>
+        <filter val="Nightmare"/>
+        <filter val="Ogre"/>
+        <filter val="Orcus"/>
+        <filter val="Ostovite"/>
+        <filter val="Ostovite Swarm"/>
+        <filter val="Otyugh"/>
+        <filter val="Panther"/>
+        <filter val="Peaceful Specter"/>
+        <filter val="Pegasus"/>
+        <filter val="Phrenic Scourge"/>
+        <filter val="Pincer Demon (Glabrezu)"/>
+        <filter val="Plesiosaur"/>
+        <filter val="Punk"/>
+        <filter val="Quipper Swarm"/>
+        <filter val="Rabbit Shaman"/>
+        <filter val="Ragged Tooth Shark"/>
+        <filter val="Raven of Doom"/>
+        <filter val="Raven Scout"/>
+        <filter val="Repeater Crossbow Master"/>
+        <filter val="Revenant Skeleton"/>
+        <filter val="Riding Horse"/>
+        <filter val="Scavenger Worm"/>
+        <filter val="Scintillating Boa"/>
+        <filter val="Scorpion Knight"/>
+        <filter val="Scurvy Pirate"/>
+        <filter val="Semiferum Caste Ophiduan"/>
+        <filter val="Shadow Bat Swarm"/>
+        <filter val="Shadow Drake"/>
+        <filter val="Shadow Prince"/>
+        <filter val="Shadowblast Warlock"/>
+        <filter val="Shapeshifter Slime (Human Form)"/>
+        <filter val="Shapeshifter Slime (Slime Form)"/>
+        <filter val="Siege Engineer"/>
+        <filter val="Signifier"/>
+        <filter val="Skeleton Warrior"/>
+        <filter val="Skinner"/>
+        <filter val="Small Air Elemental"/>
+        <filter val="Small Earth Elemental"/>
+        <filter val="Small Fire Elemental"/>
+        <filter val="Small Fishing Spider"/>
+        <filter val="Small Hunting Spider"/>
+        <filter val="Small Water Elemental"/>
+        <filter val="Small Webbing Spider"/>
+        <filter val="Smoldering Skeleton"/>
+        <filter val="Sniper Bandit"/>
+        <filter val="Specter of Chivalry"/>
+        <filter val="Specter of Sorrow"/>
+        <filter val="Squirming Mound"/>
+        <filter val="Stone Giant"/>
+        <filter val="Storm Giant"/>
+        <filter val="Stygira"/>
+        <filter val="Tear-Drinker Hag"/>
+        <filter val="The Awoken"/>
+        <filter val="The Emperor"/>
+        <filter val="The Minotaur"/>
+        <filter val="The Scorpion"/>
+        <filter val="The Tri-Pod"/>
+        <filter val="Thrall Commander"/>
+        <filter val="Throach"/>
+        <filter val="Throach Hatchling"/>
+        <filter val="Transformed Servant"/>
+        <filter val="Tunnel Brute"/>
+        <filter val="Tyrannosaur"/>
+        <filter val="Umbral Mass"/>
+        <filter val="Undying"/>
+        <filter val="Unicorn"/>
+        <filter val="Vermin Swarm"/>
+        <filter val="Veteran Thrall"/>
+        <filter val="Vigilant Statue"/>
+        <filter val="Vulture Demon"/>
+        <filter val="War Horse"/>
+        <filter val="Wicker Golem"/>
+        <filter val="Widow"/>
+        <filter val="Witchcrawler"/>
+        <filter val="Wolf"/>
+        <filter val="Wolf Shifter"/>
+        <filter val="Wolfshead Bandit"/>
+        <filter val="Worg"/>
+        <filter val="Worm That Walks"/>
+        <filter val="Young Couatl"/>
+        <filter val="Zombie"/>
+        <filter val="Zombified Wyvern"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:FA278">
     <sortCondition ref="B2:B278"/>
     <sortCondition ref="C2:C278"/>
